--- a/html/resources/1condition/trialsB1.xlsx
+++ b/html/resources/1condition/trialsB1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D630F75-6DD9-AD46-BDD9-B7553C00E851}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA80BC1-D5A0-1840-B3F6-E7461CF16431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="660" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>stimuli/bead_b.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="183" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="183" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -444,16 +444,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -513,10 +513,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
